--- a/Modelling/code/output_eeg_V-f_t_el-congruency.xlsx
+++ b/Modelling/code/output_eeg_V-f_t_el-congruency.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhewitt/GitHub/PainAnticipationVRStudy/Modelling/code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/Research/SeymourLab/PPS/Finalizing/v.5.0/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA92415-A48F-6142-9496-1092FA37E72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121CAECC-5F38-054F-99C0-838CA5494E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="12240" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="478">
   <si>
     <t>coef</t>
   </si>
@@ -1118,9 +1118,6 @@
   </si>
   <si>
     <t>V:C(f_t_el, Sum)[S.Freq_f1_t1_el1]:C(congruency, Treatment(reference='incongr'))[T.congr]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   16.6997</t>
   </si>
   <si>
     <t xml:space="preserve">    7.405</t>
@@ -1463,9 +1460,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1481,18 +1475,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1522,25 +1510,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1840,14 +1830,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="81.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1869,632 +1860,632 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>2.2087297270837841E-21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H3">
         <v>3.9432469090738538E-23</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H4">
         <v>3.9432469090738538E-23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5">
+        <v>5.7559573421895147E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6">
+        <v>0.81564330937374185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="6">
-        <v>2.2087297270837841E-21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7">
+        <v>2.8154908436725749E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8">
+        <v>0.92842514522812536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9">
+        <v>0.55218452648918948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10">
+        <v>2.8094141938979E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11">
+        <v>0.19742068134961849</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B12" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C12" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D12" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E12" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F12" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G12" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H12">
         <v>2.6427085742724349E-9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="6">
-        <v>2.8154908436725749E-7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" s="6">
-        <v>6.2077905490070084E-7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1.5725784434019469E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="5" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="6">
-        <v>2.8094141938979E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="H10" s="6">
-        <v>3.2702822411340969E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H11" s="6">
-        <v>1.0896587657941451E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="H12" s="6">
-        <v>1.0896587657941451E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1.0896587657941451E-2</v>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13">
+        <v>0.76733756084624261</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="H14" s="6">
-        <v>1.0896587657941451E-2</v>
+      <c r="A14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14">
+        <v>0.81564330937374185</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="3">
-        <v>5.7559573421895147E-2</v>
+        <v>94</v>
+      </c>
+      <c r="H15">
+        <v>0.97578812002154169</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>365</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>366</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>367</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>368</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>369</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>370</v>
+        <v>99</v>
       </c>
       <c r="G16" t="s">
-        <v>371</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0.1157821784155124</v>
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>6.2077905490070084E-7</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>334</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>335</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>304</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>336</v>
+        <v>104</v>
       </c>
       <c r="E17" t="s">
-        <v>337</v>
+        <v>105</v>
       </c>
       <c r="F17" t="s">
-        <v>338</v>
+        <v>106</v>
       </c>
       <c r="G17" t="s">
-        <v>339</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0.1677248231421396</v>
+        <v>107</v>
+      </c>
+      <c r="H17">
+        <v>0.85817255818242677</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0.19742068134961849</v>
+        <v>113</v>
+      </c>
+      <c r="H18">
+        <v>0.63294632725738575</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>241</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>242</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>243</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>244</v>
+        <v>116</v>
       </c>
       <c r="E19" t="s">
-        <v>245</v>
+        <v>117</v>
       </c>
       <c r="F19" t="s">
-        <v>246</v>
+        <v>118</v>
       </c>
       <c r="G19" t="s">
-        <v>247</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0.28223816908872379</v>
+        <v>119</v>
+      </c>
+      <c r="H19">
+        <v>0.67032748851591817</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>309</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
-        <v>310</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>311</v>
+        <v>122</v>
       </c>
       <c r="D20" t="s">
-        <v>312</v>
+        <v>123</v>
       </c>
       <c r="E20" t="s">
-        <v>313</v>
+        <v>124</v>
       </c>
       <c r="F20" t="s">
-        <v>314</v>
+        <v>125</v>
       </c>
       <c r="G20" t="s">
-        <v>315</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0.28223816908872379</v>
+        <v>126</v>
+      </c>
+      <c r="H20">
+        <v>0.55218452648918948</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>398</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
-        <v>399</v>
+        <v>128</v>
       </c>
       <c r="C21" t="s">
-        <v>400</v>
+        <v>129</v>
       </c>
       <c r="D21" t="s">
-        <v>401</v>
+        <v>130</v>
       </c>
       <c r="E21" t="s">
-        <v>402</v>
+        <v>131</v>
       </c>
       <c r="F21" t="s">
-        <v>403</v>
+        <v>132</v>
       </c>
       <c r="G21" t="s">
-        <v>404</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0.34930405316048507</v>
+        <v>133</v>
+      </c>
+      <c r="H21">
+        <v>1.0896587657941451E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>268</v>
+        <v>134</v>
       </c>
       <c r="B22" t="s">
-        <v>269</v>
+        <v>135</v>
       </c>
       <c r="C22" t="s">
-        <v>270</v>
+        <v>136</v>
       </c>
       <c r="D22" t="s">
-        <v>271</v>
+        <v>137</v>
       </c>
       <c r="E22" t="s">
-        <v>272</v>
+        <v>138</v>
       </c>
       <c r="F22" t="s">
-        <v>273</v>
+        <v>139</v>
       </c>
       <c r="G22" t="s">
-        <v>274</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0.52638447992656112</v>
+        <v>140</v>
+      </c>
+      <c r="H22">
+        <v>0.92842514522812536</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="G23" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0.55218452648918948</v>
+        <v>147</v>
+      </c>
+      <c r="H23">
+        <v>0.62195265223321095</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="F24" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="G24" t="s">
-        <v>126</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0.55218452648918948</v>
+        <v>154</v>
+      </c>
+      <c r="H24">
+        <v>0.92842514522812536</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>340</v>
+        <v>155</v>
       </c>
       <c r="B25" t="s">
-        <v>341</v>
+        <v>156</v>
       </c>
       <c r="C25" t="s">
-        <v>342</v>
+        <v>143</v>
       </c>
       <c r="D25" t="s">
-        <v>343</v>
+        <v>157</v>
       </c>
       <c r="E25" t="s">
-        <v>344</v>
+        <v>158</v>
       </c>
       <c r="F25" t="s">
-        <v>345</v>
+        <v>159</v>
       </c>
       <c r="G25" t="s">
-        <v>346</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0.55218452648918948</v>
+        <v>160</v>
+      </c>
+      <c r="H25">
+        <v>0.85910716024686151</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -2519,450 +2510,450 @@
       <c r="G26" t="s">
         <v>166</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26">
         <v>0.61527496922654878</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="C27" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="D27" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="E27" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="F27" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="G27" t="s">
-        <v>147</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0.62195265223321095</v>
+        <v>173</v>
+      </c>
+      <c r="H27">
+        <v>0.85817255818242677</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>302</v>
+        <v>174</v>
       </c>
       <c r="B28" t="s">
-        <v>303</v>
+        <v>175</v>
       </c>
       <c r="C28" t="s">
-        <v>304</v>
+        <v>176</v>
       </c>
       <c r="D28" t="s">
-        <v>305</v>
+        <v>177</v>
       </c>
       <c r="E28" t="s">
-        <v>306</v>
+        <v>178</v>
       </c>
       <c r="F28" t="s">
-        <v>307</v>
+        <v>179</v>
       </c>
       <c r="G28" t="s">
-        <v>308</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0.62195265223321095</v>
+        <v>180</v>
+      </c>
+      <c r="H28">
+        <v>0.63294632725738575</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="E29" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="F29" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="G29" t="s">
-        <v>113</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0.63294632725738575</v>
+        <v>186</v>
+      </c>
+      <c r="H29">
+        <v>0.85817255818242677</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="B30" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C30" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D30" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E30" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="F30" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="G30" t="s">
-        <v>180</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0.63294632725738575</v>
+        <v>193</v>
+      </c>
+      <c r="H30">
+        <v>0.97578812002154169</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B31" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C31" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="D31" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="E31" t="s">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="F31" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="G31" t="s">
-        <v>213</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0.63294632725738575</v>
+        <v>199</v>
+      </c>
+      <c r="H31">
+        <v>0.85910716024686151</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="B32" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C32" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="D32" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="E32" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="F32" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="G32" t="s">
-        <v>227</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0.63294632725738575</v>
+        <v>206</v>
+      </c>
+      <c r="H32">
+        <v>0.97578812002154169</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>412</v>
+        <v>207</v>
       </c>
       <c r="B33" t="s">
-        <v>413</v>
+        <v>208</v>
       </c>
       <c r="C33" t="s">
-        <v>414</v>
+        <v>209</v>
       </c>
       <c r="D33" t="s">
-        <v>415</v>
+        <v>210</v>
       </c>
       <c r="E33" t="s">
-        <v>416</v>
+        <v>211</v>
       </c>
       <c r="F33" t="s">
-        <v>417</v>
+        <v>212</v>
       </c>
       <c r="G33" t="s">
-        <v>418</v>
-      </c>
-      <c r="H33" s="3">
+        <v>213</v>
+      </c>
+      <c r="H33">
         <v>0.63294632725738575</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="B34" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="C34" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="D34" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="E34" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="F34" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="G34" t="s">
-        <v>261</v>
-      </c>
-      <c r="H34" s="3">
-        <v>0.63546296118760703</v>
+        <v>220</v>
+      </c>
+      <c r="H34">
+        <v>0.92842514522812536</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>114</v>
+        <v>221</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>222</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="D35" t="s">
-        <v>116</v>
+        <v>224</v>
       </c>
       <c r="E35" t="s">
-        <v>117</v>
+        <v>225</v>
       </c>
       <c r="F35" t="s">
-        <v>118</v>
+        <v>226</v>
       </c>
       <c r="G35" t="s">
-        <v>119</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0.67032748851591817</v>
+        <v>227</v>
+      </c>
+      <c r="H35">
+        <v>0.63294632725738575</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="E36" t="s">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="F36" t="s">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="G36" t="s">
-        <v>81</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0.76733756084624261</v>
+        <v>234</v>
+      </c>
+      <c r="H36">
+        <v>0.86673594028494227</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>235</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>216</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>237</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>238</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="3">
-        <v>0.81564330937374185</v>
+        <v>240</v>
+      </c>
+      <c r="H37">
+        <v>0.85817255818242677</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>82</v>
+        <v>241</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>242</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>243</v>
       </c>
       <c r="D38" t="s">
-        <v>85</v>
+        <v>244</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
+        <v>245</v>
       </c>
       <c r="F38" t="s">
-        <v>87</v>
+        <v>246</v>
       </c>
       <c r="G38" t="s">
-        <v>88</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0.81564330937374185</v>
+        <v>247</v>
+      </c>
+      <c r="H38">
+        <v>0.28223816908872379</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>379</v>
+        <v>248</v>
       </c>
       <c r="B39" t="s">
-        <v>380</v>
+        <v>249</v>
       </c>
       <c r="C39" t="s">
-        <v>381</v>
+        <v>250</v>
       </c>
       <c r="D39" t="s">
-        <v>382</v>
+        <v>251</v>
       </c>
       <c r="E39" t="s">
-        <v>383</v>
+        <v>252</v>
       </c>
       <c r="F39" t="s">
-        <v>384</v>
+        <v>253</v>
       </c>
       <c r="G39" t="s">
-        <v>385</v>
-      </c>
-      <c r="H39" s="3">
-        <v>0.84530511935656982</v>
+        <v>254</v>
+      </c>
+      <c r="H39">
+        <v>0.92842514522812536</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>101</v>
+        <v>255</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>256</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>257</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>258</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>259</v>
       </c>
       <c r="F40" t="s">
-        <v>106</v>
+        <v>260</v>
       </c>
       <c r="G40" t="s">
-        <v>107</v>
-      </c>
-      <c r="H40" s="3">
-        <v>0.85817255818242677</v>
+        <v>261</v>
+      </c>
+      <c r="H40">
+        <v>0.63546296118760703</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>167</v>
+        <v>262</v>
       </c>
       <c r="B41" t="s">
-        <v>168</v>
+        <v>263</v>
       </c>
       <c r="C41" t="s">
-        <v>169</v>
+        <v>264</v>
       </c>
       <c r="D41" t="s">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="E41" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
       <c r="G41" t="s">
-        <v>173</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0.85817255818242677</v>
+        <v>267</v>
+      </c>
+      <c r="H41">
+        <v>1.5725784434019469E-3</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>181</v>
+        <v>268</v>
       </c>
       <c r="B42" t="s">
-        <v>182</v>
+        <v>269</v>
       </c>
       <c r="C42" t="s">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="D42" t="s">
-        <v>183</v>
+        <v>271</v>
       </c>
       <c r="E42" t="s">
-        <v>184</v>
+        <v>272</v>
       </c>
       <c r="F42" t="s">
-        <v>185</v>
+        <v>273</v>
       </c>
       <c r="G42" t="s">
-        <v>186</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0.85817255818242677</v>
+        <v>274</v>
+      </c>
+      <c r="H42">
+        <v>0.52638447992656112</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="B43" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="C43" t="s">
-        <v>216</v>
+        <v>277</v>
       </c>
       <c r="D43" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="E43" t="s">
-        <v>238</v>
+        <v>131</v>
       </c>
       <c r="F43" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="G43" t="s">
-        <v>240</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0.85817255818242677</v>
+        <v>280</v>
+      </c>
+      <c r="H43">
+        <v>1.0896587657941451E-2</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -2987,768 +2978,770 @@
       <c r="G44" t="s">
         <v>287</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44">
         <v>0.85817255818242677</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B45" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C45" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D45" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E45" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F45" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G45" t="s">
-        <v>301</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0.85817255818242677</v>
+        <v>294</v>
+      </c>
+      <c r="H45">
+        <v>0.86673594028494227</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="B46" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="C46" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="D46" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="E46" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="F46" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="G46" t="s">
-        <v>333</v>
-      </c>
-      <c r="H46" s="3">
+        <v>301</v>
+      </c>
+      <c r="H46">
         <v>0.85817255818242677</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>433</v>
+        <v>302</v>
       </c>
       <c r="B47" t="s">
-        <v>434</v>
+        <v>303</v>
       </c>
       <c r="C47" t="s">
-        <v>435</v>
+        <v>304</v>
       </c>
       <c r="D47" t="s">
-        <v>436</v>
+        <v>305</v>
       </c>
       <c r="E47" t="s">
-        <v>437</v>
+        <v>306</v>
       </c>
       <c r="F47" t="s">
-        <v>438</v>
+        <v>307</v>
       </c>
       <c r="G47" t="s">
-        <v>439</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0.85817255818242677</v>
+        <v>308</v>
+      </c>
+      <c r="H47">
+        <v>0.62195265223321095</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>472</v>
+        <v>309</v>
       </c>
       <c r="B48" t="s">
-        <v>473</v>
+        <v>310</v>
       </c>
       <c r="C48" t="s">
-        <v>474</v>
+        <v>311</v>
       </c>
       <c r="D48" t="s">
-        <v>475</v>
+        <v>312</v>
       </c>
       <c r="E48" t="s">
-        <v>476</v>
+        <v>313</v>
       </c>
       <c r="F48" t="s">
-        <v>477</v>
+        <v>314</v>
       </c>
       <c r="G48" t="s">
-        <v>478</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0.85817255818242677</v>
+        <v>315</v>
+      </c>
+      <c r="H48">
+        <v>0.28223816908872379</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>155</v>
+        <v>316</v>
       </c>
       <c r="B49" t="s">
-        <v>156</v>
+        <v>317</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>318</v>
       </c>
       <c r="D49" t="s">
-        <v>157</v>
+        <v>319</v>
       </c>
       <c r="E49" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>159</v>
+        <v>320</v>
       </c>
       <c r="G49" t="s">
-        <v>160</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0.85910716024686151</v>
+        <v>321</v>
+      </c>
+      <c r="H49">
+        <v>3.2702822411340969E-3</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>194</v>
+        <v>322</v>
       </c>
       <c r="B50" t="s">
-        <v>195</v>
+        <v>323</v>
       </c>
       <c r="C50" t="s">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c r="D50" t="s">
-        <v>197</v>
+        <v>325</v>
       </c>
       <c r="E50" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="F50" t="s">
-        <v>198</v>
+        <v>326</v>
       </c>
       <c r="G50" t="s">
-        <v>199</v>
-      </c>
-      <c r="H50" s="3">
-        <v>0.85910716024686151</v>
+        <v>327</v>
+      </c>
+      <c r="H50">
+        <v>1.0896587657941451E-2</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>228</v>
+        <v>328</v>
       </c>
       <c r="B51" t="s">
-        <v>229</v>
+        <v>329</v>
       </c>
       <c r="C51" t="s">
-        <v>230</v>
+        <v>311</v>
       </c>
       <c r="D51" t="s">
-        <v>231</v>
+        <v>330</v>
       </c>
       <c r="E51" t="s">
-        <v>232</v>
+        <v>331</v>
       </c>
       <c r="F51" t="s">
-        <v>233</v>
+        <v>332</v>
       </c>
       <c r="G51" t="s">
-        <v>234</v>
-      </c>
-      <c r="H51" s="3">
-        <v>0.86673594028494227</v>
+        <v>333</v>
+      </c>
+      <c r="H51">
+        <v>0.85817255818242677</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>288</v>
+        <v>334</v>
       </c>
       <c r="B52" t="s">
-        <v>289</v>
+        <v>335</v>
       </c>
       <c r="C52" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="D52" t="s">
-        <v>291</v>
+        <v>336</v>
       </c>
       <c r="E52" t="s">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c r="F52" t="s">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="G52" t="s">
-        <v>294</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0.86673594028494227</v>
+        <v>339</v>
+      </c>
+      <c r="H52">
+        <v>0.1677248231421396</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B53" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="C53" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="D53" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="E53" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="F53" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="G53" t="s">
-        <v>358</v>
-      </c>
-      <c r="H53" s="3">
-        <v>0.86673594028494227</v>
+        <v>346</v>
+      </c>
+      <c r="H53">
+        <v>0.55218452648918948</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="B54" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="C54" t="s">
-        <v>388</v>
+        <v>342</v>
       </c>
       <c r="D54" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="E54" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="F54" t="s">
-        <v>391</v>
+        <v>351</v>
       </c>
       <c r="G54" t="s">
-        <v>392</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0.86673594028494227</v>
+        <v>352</v>
+      </c>
+      <c r="H54">
+        <v>0.92842514522812536</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>440</v>
+        <v>353</v>
       </c>
       <c r="B55" t="s">
-        <v>441</v>
+        <v>354</v>
       </c>
       <c r="C55" t="s">
-        <v>442</v>
+        <v>304</v>
       </c>
       <c r="D55" t="s">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="E55" t="s">
-        <v>390</v>
+        <v>356</v>
       </c>
       <c r="F55" t="s">
-        <v>443</v>
+        <v>357</v>
       </c>
       <c r="G55" t="s">
-        <v>444</v>
-      </c>
-      <c r="H55" s="3">
+        <v>358</v>
+      </c>
+      <c r="H55">
         <v>0.86673594028494227</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>459</v>
+        <v>359</v>
       </c>
       <c r="B56" t="s">
-        <v>460</v>
+        <v>360</v>
       </c>
       <c r="C56" t="s">
-        <v>461</v>
+        <v>361</v>
       </c>
       <c r="D56" t="s">
-        <v>462</v>
+        <v>362</v>
       </c>
       <c r="E56" t="s">
-        <v>463</v>
+        <v>131</v>
       </c>
       <c r="F56" t="s">
-        <v>464</v>
+        <v>363</v>
       </c>
       <c r="G56" t="s">
-        <v>465</v>
-      </c>
-      <c r="H56" s="3">
-        <v>0.87765931661607721</v>
+        <v>364</v>
+      </c>
+      <c r="H56">
+        <v>1.0896587657941451E-2</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="B57" t="s">
-        <v>446</v>
+        <v>365</v>
+      </c>
+      <c r="B57">
+        <v>16.6997</v>
       </c>
       <c r="C57" t="s">
-        <v>447</v>
+        <v>366</v>
       </c>
       <c r="D57" t="s">
-        <v>448</v>
+        <v>367</v>
       </c>
       <c r="E57" t="s">
-        <v>449</v>
+        <v>368</v>
       </c>
       <c r="F57" t="s">
-        <v>450</v>
+        <v>369</v>
       </c>
       <c r="G57" t="s">
-        <v>451</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0.90622009023327932</v>
+        <v>370</v>
+      </c>
+      <c r="H57">
+        <v>0.1157821784155124</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>44</v>
+        <v>371</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>372</v>
       </c>
       <c r="C58" t="s">
-        <v>46</v>
+        <v>373</v>
       </c>
       <c r="D58" t="s">
-        <v>47</v>
+        <v>374</v>
       </c>
       <c r="E58" t="s">
-        <v>48</v>
+        <v>375</v>
       </c>
       <c r="F58" t="s">
-        <v>49</v>
+        <v>376</v>
       </c>
       <c r="G58" t="s">
-        <v>50</v>
-      </c>
-      <c r="H58" s="3">
+        <v>377</v>
+      </c>
+      <c r="H58">
         <v>0.92842514522812536</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>134</v>
+        <v>378</v>
       </c>
       <c r="B59" t="s">
-        <v>135</v>
+        <v>379</v>
       </c>
       <c r="C59" t="s">
-        <v>136</v>
+        <v>380</v>
       </c>
       <c r="D59" t="s">
-        <v>137</v>
+        <v>381</v>
       </c>
       <c r="E59" t="s">
-        <v>138</v>
+        <v>382</v>
       </c>
       <c r="F59" t="s">
-        <v>139</v>
+        <v>383</v>
       </c>
       <c r="G59" t="s">
-        <v>140</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0.92842514522812536</v>
+        <v>384</v>
+      </c>
+      <c r="H59">
+        <v>0.84530511935656982</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>148</v>
+        <v>385</v>
       </c>
       <c r="B60" t="s">
-        <v>149</v>
+        <v>386</v>
       </c>
       <c r="C60" t="s">
-        <v>150</v>
+        <v>387</v>
       </c>
       <c r="D60" t="s">
-        <v>151</v>
+        <v>388</v>
       </c>
       <c r="E60" t="s">
-        <v>152</v>
+        <v>389</v>
       </c>
       <c r="F60" t="s">
-        <v>153</v>
+        <v>390</v>
       </c>
       <c r="G60" t="s">
-        <v>154</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0.92842514522812536</v>
+        <v>391</v>
+      </c>
+      <c r="H60">
+        <v>0.86673594028494227</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>214</v>
+        <v>392</v>
       </c>
       <c r="B61" t="s">
-        <v>215</v>
+        <v>393</v>
       </c>
       <c r="C61" t="s">
-        <v>216</v>
+        <v>394</v>
       </c>
       <c r="D61" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="E61" t="s">
-        <v>218</v>
+        <v>138</v>
       </c>
       <c r="F61" t="s">
-        <v>219</v>
+        <v>395</v>
       </c>
       <c r="G61" t="s">
-        <v>220</v>
-      </c>
-      <c r="H61" s="3">
+        <v>396</v>
+      </c>
+      <c r="H61">
         <v>0.92842514522812536</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>248</v>
+        <v>397</v>
       </c>
       <c r="B62" t="s">
-        <v>249</v>
+        <v>398</v>
       </c>
       <c r="C62" t="s">
-        <v>250</v>
+        <v>399</v>
       </c>
       <c r="D62" t="s">
-        <v>251</v>
+        <v>400</v>
       </c>
       <c r="E62" t="s">
-        <v>252</v>
+        <v>401</v>
       </c>
       <c r="F62" t="s">
-        <v>253</v>
+        <v>402</v>
       </c>
       <c r="G62" t="s">
-        <v>254</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0.92842514522812536</v>
+        <v>403</v>
+      </c>
+      <c r="H62">
+        <v>0.34930405316048507</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>347</v>
+        <v>404</v>
       </c>
       <c r="B63" t="s">
-        <v>348</v>
+        <v>405</v>
       </c>
       <c r="C63" t="s">
-        <v>342</v>
+        <v>406</v>
       </c>
       <c r="D63" t="s">
-        <v>349</v>
+        <v>407</v>
       </c>
       <c r="E63" t="s">
-        <v>350</v>
+        <v>408</v>
       </c>
       <c r="F63" t="s">
-        <v>351</v>
+        <v>409</v>
       </c>
       <c r="G63" t="s">
-        <v>352</v>
-      </c>
-      <c r="H63" s="3">
-        <v>0.92842514522812536</v>
+        <v>410</v>
+      </c>
+      <c r="H63">
+        <v>0.97578812002154169</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="B64" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="C64" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="D64" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="E64" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="F64" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="G64" t="s">
-        <v>378</v>
-      </c>
-      <c r="H64" s="3">
-        <v>0.92842514522812536</v>
+        <v>417</v>
+      </c>
+      <c r="H64">
+        <v>0.63294632725738575</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="B65" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="C65" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="D65" t="s">
-        <v>137</v>
+        <v>421</v>
       </c>
       <c r="E65" t="s">
-        <v>138</v>
+        <v>422</v>
       </c>
       <c r="F65" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="G65" t="s">
-        <v>397</v>
-      </c>
-      <c r="H65" s="3">
-        <v>0.92842514522812536</v>
+        <v>424</v>
+      </c>
+      <c r="H65">
+        <v>0.97578812002154169</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>452</v>
+        <v>425</v>
       </c>
       <c r="B66" t="s">
-        <v>453</v>
+        <v>426</v>
       </c>
       <c r="C66" t="s">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="D66" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="E66" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="F66" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="G66" t="s">
-        <v>458</v>
-      </c>
-      <c r="H66" s="3">
-        <v>0.92842514522812536</v>
+        <v>431</v>
+      </c>
+      <c r="H66">
+        <v>0.97578812002154169</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
       <c r="B67" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="C67" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="D67" t="s">
-        <v>468</v>
+        <v>435</v>
       </c>
       <c r="E67" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="F67" t="s">
-        <v>470</v>
+        <v>437</v>
       </c>
       <c r="G67" t="s">
-        <v>471</v>
-      </c>
-      <c r="H67" s="3">
-        <v>0.92842514522812536</v>
+        <v>438</v>
+      </c>
+      <c r="H67">
+        <v>0.85817255818242677</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>89</v>
+        <v>439</v>
       </c>
       <c r="B68" t="s">
-        <v>90</v>
+        <v>440</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>441</v>
       </c>
       <c r="D68" t="s">
-        <v>91</v>
+        <v>388</v>
       </c>
       <c r="E68" t="s">
-        <v>92</v>
+        <v>389</v>
       </c>
       <c r="F68" t="s">
-        <v>93</v>
+        <v>442</v>
       </c>
       <c r="G68" t="s">
-        <v>94</v>
-      </c>
-      <c r="H68" s="3">
-        <v>0.97578812002154169</v>
+        <v>443</v>
+      </c>
+      <c r="H68">
+        <v>0.86673594028494227</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>187</v>
+        <v>444</v>
       </c>
       <c r="B69" t="s">
-        <v>188</v>
+        <v>445</v>
       </c>
       <c r="C69" t="s">
-        <v>189</v>
+        <v>446</v>
       </c>
       <c r="D69" t="s">
-        <v>190</v>
+        <v>447</v>
       </c>
       <c r="E69" t="s">
-        <v>191</v>
+        <v>448</v>
       </c>
       <c r="F69" t="s">
-        <v>192</v>
+        <v>449</v>
       </c>
       <c r="G69" t="s">
-        <v>193</v>
-      </c>
-      <c r="H69" s="3">
-        <v>0.97578812002154169</v>
+        <v>450</v>
+      </c>
+      <c r="H69">
+        <v>0.90622009023327932</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>200</v>
+        <v>451</v>
       </c>
       <c r="B70" t="s">
-        <v>201</v>
+        <v>452</v>
       </c>
       <c r="C70" t="s">
-        <v>202</v>
+        <v>453</v>
       </c>
       <c r="D70" t="s">
-        <v>203</v>
+        <v>454</v>
       </c>
       <c r="E70" t="s">
-        <v>204</v>
+        <v>455</v>
       </c>
       <c r="F70" t="s">
-        <v>205</v>
+        <v>456</v>
       </c>
       <c r="G70" t="s">
-        <v>206</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0.97578812002154169</v>
+        <v>457</v>
+      </c>
+      <c r="H70">
+        <v>0.92842514522812536</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>405</v>
+        <v>458</v>
       </c>
       <c r="B71" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="C71" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="D71" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="E71" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="F71" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="G71" t="s">
-        <v>411</v>
-      </c>
-      <c r="H71" s="3">
-        <v>0.97578812002154169</v>
+        <v>464</v>
+      </c>
+      <c r="H71">
+        <v>0.87765931661607721</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="B72" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="C72" t="s">
-        <v>421</v>
+        <v>453</v>
       </c>
       <c r="D72" t="s">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="E72" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="F72" t="s">
-        <v>424</v>
+        <v>469</v>
       </c>
       <c r="G72" t="s">
-        <v>425</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0.97578812002154169</v>
+        <v>470</v>
+      </c>
+      <c r="H72">
+        <v>0.92842514522812536</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>426</v>
+        <v>471</v>
       </c>
       <c r="B73" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="C73" t="s">
-        <v>428</v>
+        <v>473</v>
       </c>
       <c r="D73" t="s">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="E73" t="s">
-        <v>430</v>
+        <v>475</v>
       </c>
       <c r="F73" t="s">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="G73" t="s">
-        <v>432</v>
-      </c>
-      <c r="H73" s="3">
-        <v>0.97578812002154169</v>
+        <v>477</v>
+      </c>
+      <c r="H73">
+        <v>0.85817255818242677</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H73">
-    <sortCondition ref="H1:H73"/>
-  </sortState>
+  <conditionalFormatting sqref="H2:H73">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>